--- a/NEW HR/MARQUEZ, HENSLEY.xlsx
+++ b/NEW HR/MARQUEZ, HENSLEY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -652,15 +652,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -673,11 +664,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1374,7 +1374,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1417,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1481,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1541,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1607,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1670,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1768,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1827,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1892,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1935,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2010,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2196,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2262,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2320,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2386,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2442,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2626,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2682,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2780,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2843,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,9 +3320,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A59" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,14 +3352,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3370,14 +3370,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3390,14 +3390,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3423,18 +3423,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3491,7 +3491,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>75.25</v>
+        <v>76.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4867,15 +4867,19 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4883,20 +4887,30 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="39"/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="39">
+        <v>1</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="49">
+        <v>45002</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
@@ -5796,17 +5810,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5844,7 +5858,7 @@
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A32" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:B44"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5875,14 +5889,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5896,17 +5910,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5920,17 +5934,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5956,18 +5970,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/MARQUEZ, HENSLEY.xlsx
+++ b/NEW HR/MARQUEZ, HENSLEY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E529E7A-DABA-448D-85B6-49E7C429DCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -273,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -652,6 +653,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -664,20 +674,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1374,7 +1375,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1418,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1482,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1542,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1608,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1671,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1769,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1828,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1893,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1936,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2011,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2197,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2263,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2321,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2387,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2443,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2518,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2561,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2627,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2683,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2781,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2844,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2909,25 +2910,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2939,25 +2940,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2969,13 +2970,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2984,14 +2985,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3295,7 +3296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3305,7 +3306,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3313,34 +3314,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A65" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A17" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3352,16 +3353,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3370,16 +3371,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3390,16 +3391,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3407,7 +3408,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3420,24 +3421,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3496,7 +3497,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3518,7 +3519,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3538,7 +3539,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3558,7 +3559,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3578,7 +3579,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3622,7 +3623,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3642,7 +3643,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3662,7 +3663,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3682,7 +3683,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3702,7 +3703,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3746,7 +3747,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3770,7 +3771,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3788,7 +3789,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3808,7 +3809,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3828,7 +3829,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3848,7 +3849,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3868,7 +3869,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3888,7 +3889,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3908,7 +3909,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3928,7 +3929,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3948,7 +3949,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3968,7 +3969,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3988,7 +3989,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4008,7 +4009,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4032,7 +4033,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4050,7 +4051,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4070,7 +4071,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4114,7 +4115,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4134,7 +4135,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4154,7 +4155,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4174,7 +4175,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4194,7 +4195,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4214,7 +4215,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4234,7 +4235,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4254,7 +4255,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4274,7 +4275,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4298,7 +4299,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4316,7 +4317,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4336,7 +4337,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4356,7 +4357,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4376,7 +4377,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4396,7 +4397,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4416,7 +4417,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4436,7 +4437,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4456,7 +4457,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4476,7 +4477,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4496,7 +4497,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4516,7 +4517,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4536,7 +4537,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4560,7 +4561,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4578,7 +4579,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4598,7 +4599,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4618,7 +4619,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4638,7 +4639,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4658,7 +4659,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4678,7 +4679,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4698,7 +4699,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4718,7 +4719,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4738,7 +4739,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4758,7 +4759,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4778,7 +4779,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4798,7 +4799,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4822,7 +4823,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4840,7 +4841,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4886,7 +4887,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4928,7 +4929,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4944,7 +4945,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4960,7 +4961,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4976,7 +4977,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4992,7 +4993,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5008,7 +5009,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5024,7 +5025,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5040,7 +5041,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5056,7 +5057,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5072,7 +5073,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5088,7 +5089,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5104,7 +5105,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5120,7 +5121,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5136,7 +5137,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5152,7 +5153,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5168,7 +5169,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5184,7 +5185,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5200,7 +5201,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5216,7 +5217,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5232,7 +5233,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5248,7 +5249,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5264,7 +5265,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5280,7 +5281,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5296,7 +5297,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5312,7 +5313,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5328,7 +5329,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5344,7 +5345,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5360,7 +5361,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5376,7 +5377,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5392,7 +5393,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5408,7 +5409,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5424,7 +5425,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5440,7 +5441,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5456,7 +5457,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5472,7 +5473,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5488,7 +5489,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5504,7 +5505,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5520,7 +5521,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5536,7 +5537,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5552,7 +5553,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5568,7 +5569,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5584,7 +5585,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5600,7 +5601,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5616,7 +5617,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5632,7 +5633,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5648,7 +5649,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5664,7 +5665,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5680,7 +5681,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5696,7 +5697,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5712,7 +5713,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5728,7 +5729,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5744,7 +5745,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5760,7 +5761,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5776,7 +5777,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5792,7 +5793,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5810,23 +5811,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5849,34 +5850,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A32" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5889,16 +5890,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5910,19 +5911,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5934,19 +5935,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5954,7 +5955,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5967,24 +5968,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6038,12 +6039,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6065,7 +6066,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6089,7 +6090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -6107,7 +6108,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -6125,7 +6126,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -6143,7 +6144,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -6167,7 +6168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="15" t="s">
         <v>53</v>
@@ -6187,7 +6188,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -6209,7 +6210,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -6253,7 +6254,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43313</v>
       </c>
@@ -6277,7 +6278,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>62</v>
@@ -6297,7 +6298,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -6321,7 +6322,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>61</v>
@@ -6341,7 +6342,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43374</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>63</v>
@@ -6385,7 +6386,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43405</v>
       </c>
@@ -6407,7 +6408,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43435</v>
       </c>
@@ -6429,7 +6430,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>65</v>
@@ -6449,7 +6450,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>43</v>
       </c>
@@ -6467,7 +6468,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43497</v>
       </c>
@@ -6491,7 +6492,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43556</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -6537,7 +6538,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -6633,7 +6634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -6657,7 +6658,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
@@ -6675,7 +6676,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44013</v>
       </c>
@@ -6699,7 +6700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44075</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>72</v>
@@ -6745,8 +6746,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
@@ -6761,9 +6764,13 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="20"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
@@ -6772,12 +6779,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H43" s="39"/>
+      <c r="H43" s="39">
+        <v>1</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="49">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6793,7 +6804,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6809,7 +6820,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6825,7 +6836,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6841,7 +6852,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6857,7 +6868,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6873,7 +6884,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6889,7 +6900,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6905,7 +6916,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6921,7 +6932,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6937,7 +6948,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6953,7 +6964,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6969,7 +6980,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6985,7 +6996,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7001,7 +7012,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7017,7 +7028,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7033,7 +7044,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7049,7 +7060,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7065,7 +7076,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7081,7 +7092,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7097,7 +7108,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7113,7 +7124,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7129,7 +7140,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7145,7 +7156,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7161,7 +7172,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7177,7 +7188,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7193,7 +7204,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7209,7 +7220,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7225,7 +7236,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7241,7 +7252,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7257,7 +7268,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7273,7 +7284,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7289,7 +7300,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7305,7 +7316,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7321,7 +7332,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7337,7 +7348,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7353,7 +7364,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7369,7 +7380,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7385,7 +7396,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7401,7 +7412,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7417,7 +7428,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7433,7 +7444,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7449,7 +7460,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7465,7 +7476,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7481,7 +7492,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7497,7 +7508,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7513,7 +7524,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7529,7 +7540,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7545,7 +7556,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7561,7 +7572,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7577,7 +7588,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7593,7 +7604,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7609,7 +7620,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7625,7 +7636,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7641,7 +7652,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7657,7 +7668,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7673,7 +7684,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7689,7 +7700,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7705,7 +7716,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7721,7 +7732,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7737,7 +7748,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7753,7 +7764,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7769,7 +7780,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7785,7 +7796,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7801,7 +7812,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7817,7 +7828,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7833,7 +7844,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7849,7 +7860,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7865,7 +7876,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7881,7 +7892,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7897,7 +7908,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7913,7 +7924,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7929,7 +7940,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7945,7 +7956,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7961,7 +7972,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7977,7 +7988,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7993,7 +8004,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8009,7 +8020,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8025,7 +8036,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8041,7 +8052,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8057,7 +8068,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8073,7 +8084,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8089,7 +8100,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8105,7 +8116,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8121,7 +8132,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8137,7 +8148,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8153,7 +8164,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8169,7 +8180,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8185,7 +8196,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8201,7 +8212,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8217,7 +8228,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8233,7 +8244,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -8264,10 +8275,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8290,7 +8301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8298,21 +8309,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8325,7 +8336,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8354,7 +8365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>51.709000000000003</v>
       </c>
@@ -8382,17 +8393,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8413,7 +8424,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8440,7 +8451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8466,7 +8477,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8492,7 +8503,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8518,7 +8529,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8544,7 +8555,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8570,7 +8581,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8596,7 +8607,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8622,7 +8633,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8642,7 +8653,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8662,7 +8673,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8682,7 +8693,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8703,7 +8714,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8724,7 +8735,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8745,7 +8756,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8766,7 +8777,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8787,7 +8798,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8808,7 +8819,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8829,7 +8840,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8850,7 +8861,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8871,7 +8882,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8892,7 +8903,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8913,7 +8924,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8934,7 +8945,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8955,7 +8966,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8976,7 +8987,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8997,7 +9008,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9018,7 +9029,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9039,7 +9050,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9060,7 +9071,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9081,7 +9092,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9102,7 +9113,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9111,7 +9122,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9120,7 +9131,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9129,7 +9140,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9138,7 +9149,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9147,7 +9158,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9156,7 +9167,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9165,7 +9176,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9174,7 +9185,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9183,7 +9194,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9192,7 +9203,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9201,7 +9212,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9210,7 +9221,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9219,7 +9230,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9228,7 +9239,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9237,7 +9248,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9246,7 +9257,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9255,7 +9266,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9264,7 +9275,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9273,7 +9284,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9282,7 +9293,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9291,7 +9302,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9300,7 +9311,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9309,7 +9320,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9318,7 +9329,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9327,7 +9338,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9336,7 +9347,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9345,7 +9356,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9354,7 +9365,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9363,7 +9374,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/MARQUEZ, HENSLEY.xlsx
+++ b/NEW HR/MARQUEZ, HENSLEY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E529E7A-DABA-448D-85B6-49E7C429DCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -274,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -653,15 +652,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -674,11 +664,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1375,7 +1374,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1417,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1481,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1541,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1607,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1670,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,7 +1768,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1827,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1892,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1935,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2010,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2196,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2262,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2320,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2386,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2442,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2517,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2560,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,7 +2626,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2682,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2781,7 +2780,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2844,7 +2843,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,25 +2909,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2940,25 +2939,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2970,13 +2969,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2985,14 +2984,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3296,7 +3295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3306,7 +3305,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3314,34 +3313,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A17" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A17" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
       <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3353,16 +3352,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3371,16 +3370,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3391,16 +3390,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3408,7 +3407,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3421,24 +3420,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3497,7 +3496,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3519,7 +3518,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3539,7 +3538,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3559,7 +3558,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3579,7 +3578,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3623,7 +3622,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3643,7 +3642,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3663,7 +3662,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3683,7 +3682,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3703,7 +3702,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3747,7 +3746,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3771,7 +3770,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3789,7 +3788,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3809,7 +3808,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3829,7 +3828,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3849,7 +3848,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3869,7 +3868,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3889,7 +3888,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3909,7 +3908,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3929,7 +3928,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3949,7 +3948,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3969,7 +3968,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3989,7 +3988,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4033,7 +4032,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4051,7 +4050,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4071,7 +4070,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4115,7 +4114,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4135,7 +4134,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4155,7 +4154,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4175,7 +4174,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4195,7 +4194,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4215,7 +4214,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4235,7 +4234,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4255,7 +4254,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4275,7 +4274,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4299,7 +4298,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4317,7 +4316,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4337,7 +4336,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4357,7 +4356,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4377,7 +4376,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4397,7 +4396,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4417,7 +4416,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4437,7 +4436,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4457,7 +4456,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4477,7 +4476,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4497,7 +4496,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4517,7 +4516,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4537,7 +4536,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4561,7 +4560,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4579,7 +4578,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4599,7 +4598,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4619,7 +4618,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4639,7 +4638,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4659,7 +4658,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4679,7 +4678,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4699,7 +4698,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4719,7 +4718,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4739,7 +4738,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4759,7 +4758,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4779,7 +4778,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4799,7 +4798,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4823,7 +4822,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4841,7 +4840,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4867,7 +4866,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4887,7 +4886,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4929,7 +4928,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4945,7 +4944,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4961,7 +4960,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4977,7 +4976,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4993,7 +4992,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5009,7 +5008,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5025,7 +5024,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5041,7 +5040,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5057,7 +5056,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5073,7 +5072,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5089,7 +5088,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5105,7 +5104,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5121,7 +5120,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5137,7 +5136,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5153,7 +5152,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5169,7 +5168,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5185,7 +5184,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5201,7 +5200,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5217,7 +5216,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5233,7 +5232,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5249,7 +5248,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5265,7 +5264,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5281,7 +5280,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5297,7 +5296,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5313,7 +5312,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5329,7 +5328,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5345,7 +5344,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5361,7 +5360,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5377,7 +5376,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5393,7 +5392,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5409,7 +5408,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5425,7 +5424,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5441,7 +5440,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5457,7 +5456,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5473,7 +5472,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5489,7 +5488,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5505,7 +5504,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5521,7 +5520,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5537,7 +5536,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5553,7 +5552,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5569,7 +5568,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5585,7 +5584,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5601,7 +5600,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5617,7 +5616,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5633,7 +5632,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5649,7 +5648,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5665,7 +5664,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5681,7 +5680,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5697,7 +5696,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5713,7 +5712,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5729,7 +5728,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5745,7 +5744,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5761,7 +5760,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5777,7 +5776,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5793,7 +5792,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5811,23 +5810,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5850,34 +5849,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A33" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5890,16 +5889,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5911,19 +5910,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5935,19 +5934,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5955,7 +5954,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5968,24 +5967,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6020,7 +6019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6044,7 +6043,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6066,7 +6065,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6090,7 +6089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -6108,7 +6107,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -6126,7 +6125,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -6144,7 +6143,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -6168,7 +6167,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="15" t="s">
         <v>53</v>
@@ -6188,7 +6187,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -6210,7 +6209,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -6254,7 +6253,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43313</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>62</v>
@@ -6298,7 +6297,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -6322,7 +6321,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>61</v>
@@ -6342,7 +6341,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43374</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>63</v>
@@ -6386,7 +6385,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43405</v>
       </c>
@@ -6408,7 +6407,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43435</v>
       </c>
@@ -6430,7 +6429,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>65</v>
@@ -6450,7 +6449,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>43</v>
       </c>
@@ -6468,7 +6467,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43497</v>
       </c>
@@ -6492,7 +6491,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43556</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -6538,7 +6537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -6610,7 +6609,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
@@ -6676,7 +6675,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44013</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44075</v>
       </c>
@@ -6724,7 +6723,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>72</v>
@@ -6746,7 +6745,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>47</v>
       </c>
@@ -6764,7 +6763,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44986</v>
       </c>
@@ -6788,9 +6787,13 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="20"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
@@ -6802,9 +6805,11 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="49">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6820,7 +6825,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6836,7 +6841,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6852,7 +6857,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6868,7 +6873,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6884,7 +6889,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6900,7 +6905,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6916,7 +6921,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6932,7 +6937,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6948,7 +6953,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6964,7 +6969,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6980,7 +6985,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6996,7 +7001,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7012,7 +7017,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7028,7 +7033,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7044,7 +7049,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7060,7 +7065,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7076,7 +7081,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7092,7 +7097,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7108,7 +7113,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7124,7 +7129,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7140,7 +7145,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7156,7 +7161,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7172,7 +7177,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7188,7 +7193,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7204,7 +7209,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7220,7 +7225,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7236,7 +7241,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7252,7 +7257,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7268,7 +7273,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7284,7 +7289,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7300,7 +7305,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7316,7 +7321,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7332,7 +7337,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7348,7 +7353,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7364,7 +7369,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7380,7 +7385,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7396,7 +7401,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7412,7 +7417,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7428,7 +7433,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7444,7 +7449,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7460,7 +7465,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7476,7 +7481,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7492,7 +7497,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7508,7 +7513,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7524,7 +7529,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7540,7 +7545,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7556,7 +7561,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7572,7 +7577,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7588,7 +7593,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7604,7 +7609,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7620,7 +7625,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7636,7 +7641,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7652,7 +7657,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7668,7 +7673,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7684,7 +7689,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7700,7 +7705,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7716,7 +7721,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7732,7 +7737,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7748,7 +7753,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7764,7 +7769,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7780,7 +7785,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7796,7 +7801,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7812,7 +7817,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7828,7 +7833,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7844,7 +7849,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7860,7 +7865,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7876,7 +7881,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7892,7 +7897,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7908,7 +7913,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7924,7 +7929,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7940,7 +7945,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7956,7 +7961,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7972,7 +7977,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7988,7 +7993,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8004,7 +8009,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8020,7 +8025,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8036,7 +8041,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8052,7 +8057,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8068,7 +8073,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8084,7 +8089,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8100,7 +8105,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8116,7 +8121,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8132,7 +8137,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8148,7 +8153,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8164,7 +8169,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8180,7 +8185,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8196,7 +8201,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8212,7 +8217,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8228,7 +8233,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8244,7 +8249,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -8275,10 +8280,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8301,7 +8306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8309,21 +8314,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8336,7 +8341,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8365,7 +8370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>51.709000000000003</v>
       </c>
@@ -8393,17 +8398,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8424,7 +8429,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8451,7 +8456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8477,7 +8482,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8503,7 +8508,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8529,7 +8534,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8555,7 +8560,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8581,7 +8586,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8607,7 +8612,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8633,7 +8638,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8653,7 +8658,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8673,7 +8678,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8693,7 +8698,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8714,7 +8719,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8735,7 +8740,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8756,7 +8761,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8777,7 +8782,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8798,7 +8803,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8819,7 +8824,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8840,7 +8845,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8861,7 +8866,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8882,7 +8887,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8903,7 +8908,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8924,7 +8929,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8945,7 +8950,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8966,7 +8971,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8987,7 +8992,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9008,7 +9013,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9029,7 +9034,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9050,7 +9055,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9071,7 +9076,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9092,7 +9097,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9113,7 +9118,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9122,7 +9127,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9131,7 +9136,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9140,7 +9145,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9149,7 +9154,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9158,7 +9163,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9167,7 +9172,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9176,7 +9181,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9185,7 +9190,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9194,7 +9199,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9203,7 +9208,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9212,7 +9217,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9221,7 +9226,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9230,7 +9235,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9239,7 +9244,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9248,7 +9253,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9257,7 +9262,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9266,7 +9271,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9275,7 +9280,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9284,7 +9289,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9293,7 +9298,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9302,7 +9307,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9311,7 +9316,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9320,7 +9325,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9329,7 +9334,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9338,7 +9343,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9347,7 +9352,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9356,7 +9361,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9365,7 +9370,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9374,7 +9379,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/MARQUEZ, HENSLEY.xlsx
+++ b/NEW HR/MARQUEZ, HENSLEY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B3547A-8936-4DEB-9B7A-60ED4823CC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -269,11 +270,17 @@
   <si>
     <t>SL(1-0-0)</t>
   </si>
+  <si>
+    <t>LEGISLATIVE STAFF</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -652,6 +659,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -664,20 +680,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1374,7 +1381,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1424,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1488,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1548,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1614,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1677,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1775,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1834,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1899,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1942,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2017,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2203,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2269,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2327,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2393,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2449,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2524,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2567,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2633,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2689,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2787,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2850,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2909,25 +2916,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2939,25 +2946,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2969,13 +2976,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2984,14 +2991,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3295,7 +3302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3305,7 +3312,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3313,34 +3320,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A17" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A75" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3352,34 +3359,36 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3390,16 +3399,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3407,7 +3418,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3420,24 +3431,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3481,7 +3492,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3491,12 +3502,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.75</v>
+        <v>77</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3518,7 +3529,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3538,7 +3549,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3558,7 +3569,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3578,7 +3589,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3602,7 +3613,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3622,7 +3633,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3642,7 +3653,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3662,7 +3673,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3682,7 +3693,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3702,7 +3713,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3726,7 +3737,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3746,7 +3757,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3770,7 +3781,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3788,7 +3799,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3808,7 +3819,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3828,7 +3839,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3848,7 +3859,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3868,7 +3879,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3888,7 +3899,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3908,7 +3919,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3928,7 +3939,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3948,7 +3959,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3968,7 +3979,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3988,7 +3999,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4008,7 +4019,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4032,7 +4043,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4050,7 +4061,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4070,7 +4081,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4094,7 +4105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4114,7 +4125,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4134,7 +4145,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4154,7 +4165,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4174,7 +4185,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4194,7 +4205,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4214,7 +4225,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4234,7 +4245,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4254,7 +4265,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4274,7 +4285,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4298,7 +4309,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4316,7 +4327,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4336,7 +4347,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4356,7 +4367,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4376,7 +4387,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4396,7 +4407,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4416,7 +4427,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4436,7 +4447,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4456,7 +4467,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4476,7 +4487,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4496,7 +4507,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4516,7 +4527,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4536,7 +4547,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4560,7 +4571,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4578,7 +4589,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4598,7 +4609,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4618,7 +4629,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4638,7 +4649,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4658,7 +4669,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4678,7 +4689,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4698,7 +4709,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4718,7 +4729,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4738,7 +4749,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4758,7 +4769,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4778,7 +4789,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4798,7 +4809,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4822,7 +4833,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4840,7 +4851,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4866,7 +4877,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4886,7 +4897,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4912,25 +4923,33 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="20"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
@@ -4939,13 +4958,19 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="K80" s="49">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4960,8 +4985,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4976,8 +5003,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4992,8 +5021,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5008,8 +5039,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5024,8 +5057,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5040,8 +5075,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5056,8 +5093,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45292</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5072,8 +5111,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45323</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5088,8 +5129,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45352</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5104,8 +5147,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45383</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5120,8 +5165,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45413</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5136,8 +5183,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>45444</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5152,8 +5201,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45474</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5168,8 +5219,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45505</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5184,8 +5237,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45536</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5200,8 +5255,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45566</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5216,8 +5273,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45597</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5232,8 +5291,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45627</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5248,8 +5309,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45658</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5264,8 +5327,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45689</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5280,8 +5345,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45717</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5296,8 +5363,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>45748</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5312,8 +5381,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45778</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5328,8 +5399,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
+        <v>45809</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5344,8 +5417,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>45839</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5360,7 +5435,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5376,7 +5451,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5392,7 +5467,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5408,7 +5483,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5424,7 +5499,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5440,7 +5515,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5456,7 +5531,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5472,7 +5547,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5488,7 +5563,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5504,7 +5579,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5520,7 +5595,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5536,7 +5611,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5552,7 +5627,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5568,7 +5643,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5584,7 +5659,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5600,7 +5675,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5616,7 +5691,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5632,7 +5707,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5648,7 +5723,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5664,7 +5739,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5680,7 +5755,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5696,7 +5771,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5712,7 +5787,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5728,7 +5803,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5744,7 +5819,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5760,7 +5835,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5776,7 +5851,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5792,7 +5867,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5810,23 +5885,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5849,34 +5924,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A33" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5889,40 +5964,40 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
-        <v/>
+        <v>LEGISLATIVE STAFF</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5934,19 +6009,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="55"/>
+        <v>SP</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5954,7 +6029,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5967,24 +6042,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6019,7 +6094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6043,7 +6118,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6065,7 +6140,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6089,7 +6164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -6107,7 +6182,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -6125,7 +6200,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -6143,7 +6218,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -6167,7 +6242,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="15" t="s">
         <v>53</v>
@@ -6187,7 +6262,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -6209,7 +6284,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -6233,7 +6308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -6253,7 +6328,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43313</v>
       </c>
@@ -6277,7 +6352,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>62</v>
@@ -6297,7 +6372,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -6321,7 +6396,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>61</v>
@@ -6341,7 +6416,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43374</v>
       </c>
@@ -6365,7 +6440,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>63</v>
@@ -6385,7 +6460,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43405</v>
       </c>
@@ -6407,7 +6482,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43435</v>
       </c>
@@ -6429,7 +6504,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>65</v>
@@ -6449,7 +6524,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>43</v>
       </c>
@@ -6467,7 +6542,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43497</v>
       </c>
@@ -6491,7 +6566,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43556</v>
       </c>
@@ -6515,7 +6590,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -6537,7 +6612,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -6561,7 +6636,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -6585,7 +6660,7 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -6609,7 +6684,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -6633,7 +6708,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -6657,7 +6732,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
@@ -6675,7 +6750,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44013</v>
       </c>
@@ -6699,7 +6774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44075</v>
       </c>
@@ -6723,7 +6798,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>72</v>
@@ -6745,7 +6820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>47</v>
       </c>
@@ -6763,7 +6838,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44986</v>
       </c>
@@ -6787,7 +6862,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>45047</v>
       </c>
@@ -6809,7 +6884,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6825,7 +6900,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6841,7 +6916,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6857,7 +6932,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6873,7 +6948,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6889,7 +6964,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6905,7 +6980,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6921,7 +6996,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6937,7 +7012,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6953,7 +7028,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6969,7 +7044,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6985,7 +7060,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7001,7 +7076,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7017,7 +7092,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7033,7 +7108,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7049,7 +7124,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7065,7 +7140,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7081,7 +7156,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7097,7 +7172,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7113,7 +7188,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7129,7 +7204,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7145,7 +7220,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7161,7 +7236,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7177,7 +7252,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7193,7 +7268,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7209,7 +7284,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7225,7 +7300,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7241,7 +7316,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7257,7 +7332,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7273,7 +7348,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7289,7 +7364,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7305,7 +7380,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7321,7 +7396,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7337,7 +7412,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7353,7 +7428,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7369,7 +7444,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7385,7 +7460,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7401,7 +7476,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7417,7 +7492,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7433,7 +7508,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7449,7 +7524,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7465,7 +7540,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7481,7 +7556,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7497,7 +7572,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7513,7 +7588,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7529,7 +7604,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7545,7 +7620,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7561,7 +7636,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7577,7 +7652,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7593,7 +7668,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7609,7 +7684,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7625,7 +7700,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7641,7 +7716,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7657,7 +7732,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7673,7 +7748,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7689,7 +7764,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7705,7 +7780,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7721,7 +7796,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7737,7 +7812,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7753,7 +7828,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7769,7 +7844,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7785,7 +7860,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7801,7 +7876,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7817,7 +7892,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7833,7 +7908,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7849,7 +7924,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7865,7 +7940,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7881,7 +7956,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7897,7 +7972,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7913,7 +7988,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7929,7 +8004,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7945,7 +8020,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7961,7 +8036,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7977,7 +8052,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7993,7 +8068,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8009,7 +8084,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8025,7 +8100,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8041,7 +8116,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8057,7 +8132,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8073,7 +8148,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8089,7 +8164,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8105,7 +8180,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8121,7 +8196,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8137,7 +8212,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8153,7 +8228,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8169,7 +8244,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8185,7 +8260,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8201,7 +8276,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8217,7 +8292,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8233,7 +8308,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8249,7 +8324,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -8280,10 +8355,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8306,7 +8381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8314,21 +8389,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8341,7 +8416,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8370,7 +8445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>51.709000000000003</v>
       </c>
@@ -8398,17 +8473,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8429,7 +8504,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8456,7 +8531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8482,7 +8557,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8508,7 +8583,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8534,7 +8609,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8560,7 +8635,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8586,7 +8661,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8612,7 +8687,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8638,7 +8713,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8658,7 +8733,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8678,7 +8753,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8698,7 +8773,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8719,7 +8794,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8740,7 +8815,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8761,7 +8836,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8782,7 +8857,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8803,7 +8878,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8824,7 +8899,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8845,7 +8920,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8866,7 +8941,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8887,7 +8962,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8908,7 +8983,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8929,7 +9004,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8950,7 +9025,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8971,7 +9046,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8992,7 +9067,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9013,7 +9088,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9034,7 +9109,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9055,7 +9130,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9076,7 +9151,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9097,7 +9172,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9118,7 +9193,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9127,7 +9202,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9136,7 +9211,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9145,7 +9220,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9154,7 +9229,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9163,7 +9238,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9172,7 +9247,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9181,7 +9256,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9190,7 +9265,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9199,7 +9274,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9208,7 +9283,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9217,7 +9292,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9226,7 +9301,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9235,7 +9310,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9244,7 +9319,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9253,7 +9328,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9262,7 +9337,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9271,7 +9346,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9280,7 +9355,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9289,7 +9364,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9298,7 +9373,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9307,7 +9382,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9316,7 +9391,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9325,7 +9400,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9334,7 +9409,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9343,7 +9418,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9352,7 +9427,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9361,7 +9436,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9370,7 +9445,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9379,7 +9454,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/MARQUEZ, HENSLEY.xlsx
+++ b/NEW HR/MARQUEZ, HENSLEY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B3547A-8936-4DEB-9B7A-60ED4823CC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE06B30D-1634-4105-9C96-B070DC0195B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>SP</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>6/20,22/2023</t>
   </si>
 </sst>
 </file>
@@ -659,15 +665,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -680,11 +677,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2899,7 +2905,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3326,10 +3332,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4056" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3359,14 +3365,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3379,14 +3385,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3399,16 +3405,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3434,18 +3440,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3492,7 +3498,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3502,7 +3508,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4950,13 +4956,15 @@
       <c r="B80" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39">
         <v>1</v>
@@ -4972,13 +4980,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4989,7 +4999,9 @@
       <c r="A82" s="40">
         <v>45108</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
@@ -4998,10 +5010,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>2</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
@@ -5885,17 +5901,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5930,10 +5946,10 @@
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4056" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5964,14 +5980,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5985,17 +6001,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -6009,17 +6025,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>SP</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -6045,18 +6061,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">

--- a/NEW HR/MARQUEZ, HENSLEY.xlsx
+++ b/NEW HR/MARQUEZ, HENSLEY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE06B30D-1634-4105-9C96-B070DC0195B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A110FC-3A2C-42FE-938C-29D2FC60E429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>6/20,22/2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>7/12,20/2023</t>
   </si>
 </sst>
 </file>
@@ -665,6 +671,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -677,20 +692,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3332,10 +3338,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4056" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3365,14 +3371,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3385,14 +3391,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3405,16 +3411,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3440,18 +3446,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3498,7 +3504,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3508,7 +3514,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5002,13 +5008,15 @@
       <c r="B82" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39">
         <v>2</v>
@@ -5901,17 +5909,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5946,10 +5954,10 @@
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4056" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5980,14 +5988,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -6001,17 +6009,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -6025,17 +6033,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>SP</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -6061,18 +6069,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -6119,7 +6127,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.826000000000008</v>
+        <v>10.826000000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6901,10 +6909,16 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="40">
+        <v>45110</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="39"/>
+      <c r="D45" s="39">
+        <v>2</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13" t="str">
@@ -6914,7 +6928,9 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
